--- a/output/students_middle.xlsx
+++ b/output/students_middle.xlsx
@@ -1421,7 +1421,7 @@
       </c>
       <c r="G8" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H8" s="19" t="n"/>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="C15" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D15" s="16" t="n"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D16" s="16" t="n"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D21" s="16" t="n"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="G21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H21" s="19" t="n"/>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="G30" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H30" s="19" t="n"/>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="C32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D32" s="19" t="n"/>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="G32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H32" s="19" t="n"/>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C39" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D39" s="19" t="n"/>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="G39" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H39" s="19" t="n"/>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="G40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H40" s="19" t="n"/>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="G47" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H47" s="19" t="n"/>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="C48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D48" s="19" t="n"/>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="G48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H48" s="19" t="n"/>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C9" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="C15" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D15" s="16" t="n"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="I15" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J15" s="19" t="n"/>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="C17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D17" s="24" t="n"/>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="I17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="G21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H21" s="19" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="I21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J21" s="16" t="n"/>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="C22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="E22" s="20" t="n"/>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="I22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J22" s="16" t="n"/>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="C24" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D24" s="19" t="n"/>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C25" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="I29" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J29" s="16" t="n"/>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="I30" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J30" s="16" t="n"/>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="I32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J32" s="19" t="n"/>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C39" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D39" s="19" t="n"/>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="E41" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F41" s="24" t="n"/>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="I41" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J41" s="22" t="n"/>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="C48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D48" s="19" t="n"/>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="I48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J48" s="19" t="n"/>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="K49" s="45" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="I16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J16" s="16" t="n"/>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F17" s="30" t="n"/>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="I30" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J30" s="16" t="n"/>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="E31" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F31" s="19" t="n"/>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="I32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J32" s="19" t="n"/>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="E33" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F33" s="22" t="n"/>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="E40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F40" s="16" t="n"/>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="I40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J40" s="48" t="n"/>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="E41" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F41" s="24" t="n"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="K41" s="45" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="I48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J48" s="19" t="n"/>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="I49" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="E8" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F8" s="19" t="n"/>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="E24" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F24" s="19" t="inlineStr">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="G24" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H24" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="E40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F40" s="19" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="G40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H40" s="16" t="n"/>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="E48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F48" s="19" t="inlineStr">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="G48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H48" s="16" t="n"/>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="C9" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="I9" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J9" s="22" t="n"/>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="E16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F16" s="28" t="n"/>
@@ -7020,7 +7020,7 @@
       </c>
       <c r="K16" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="C17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="I17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="C24" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D24" s="19" t="n"/>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="I24" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J24" s="19" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="K24" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="C25" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="G25" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H25" s="22" t="n"/>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="C32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D32" s="19" t="n"/>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="I32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J32" s="19" t="inlineStr">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="K32" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="C33" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="G33" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H33" s="22" t="n"/>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="C40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D40" s="19" t="n"/>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="I41" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J41" s="22" t="n"/>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="E7" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F7" s="16" t="n"/>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="C8" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D8" s="19" t="n"/>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="G8" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H8" s="19" t="n"/>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="C16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D16" s="19" t="n"/>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="I16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J16" s="19" t="n"/>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="C17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="E17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F17" s="30" t="n"/>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="C21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D21" s="19" t="n"/>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="C22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D22" s="19" t="n"/>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="G22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H22" s="19" t="n"/>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="K23" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="G24" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H24" s="19" t="n"/>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="C25" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="G29" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H29" s="19" t="n"/>
@@ -8842,7 +8842,7 @@
       </c>
       <c r="K32" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="C33" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="G33" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H33" s="22" t="n"/>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="C41" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="G41" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H41" s="22" t="n"/>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="E49" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F49" s="22" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="G49" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H49" s="22" t="n"/>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="C7" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D7" s="19" t="n"/>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="C8" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D8" s="16" t="n"/>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="I8" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J8" s="16" t="n"/>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C15" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D15" s="19" t="n"/>
@@ -9828,7 +9828,7 @@
       </c>
       <c r="C16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D16" s="16" t="n"/>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="K17" s="45" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="C21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D21" s="19" t="n"/>
@@ -9986,7 +9986,7 @@
       </c>
       <c r="C22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D22" s="19" t="n"/>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="G22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H22" s="19" t="inlineStr">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="I22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J22" s="16" t="n"/>
@@ -10178,7 +10178,7 @@
       </c>
       <c r="C30" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D30" s="19" t="n"/>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="C31" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D31" s="19" t="n"/>
@@ -10232,7 +10232,7 @@
       </c>
       <c r="G32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H32" s="16" t="n"/>
@@ -10244,7 +10244,7 @@
       </c>
       <c r="K32" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="C40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D40" s="16" t="n"/>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="G48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H48" s="19" t="n"/>
@@ -11293,7 +11293,7 @@
       </c>
       <c r="I21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J21" s="16" t="n"/>
@@ -11329,7 +11329,7 @@
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D23" s="19" t="inlineStr">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="E23" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F23" s="19" t="n"/>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="I23" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J23" s="16" t="n"/>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I29" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J29" s="16" t="n"/>
@@ -11512,7 +11512,7 @@
       </c>
       <c r="C30" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D30" s="19" t="inlineStr">
@@ -11522,7 +11522,7 @@
       </c>
       <c r="E30" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F30" s="19" t="n"/>
@@ -11534,7 +11534,7 @@
       </c>
       <c r="I30" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J30" s="16" t="n"/>
@@ -11725,7 +11725,7 @@
       </c>
       <c r="G39" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H39" s="19" t="n"/>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="C40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D40" s="16" t="n"/>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="I40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J40" s="16" t="n"/>
@@ -11930,7 +11930,7 @@
       </c>
       <c r="C48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D48" s="16" t="n"/>
@@ -11944,7 +11944,7 @@
       </c>
       <c r="I48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J48" s="16" t="n"/>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="C7" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D7" s="19" t="n"/>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="C8" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D8" s="19" t="n"/>
@@ -12374,7 +12374,7 @@
       </c>
       <c r="I8" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J8" s="19" t="n"/>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="I15" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J15" s="19" t="n"/>
@@ -12552,7 +12552,7 @@
       </c>
       <c r="C16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D16" s="19" t="n"/>
@@ -12566,7 +12566,7 @@
       </c>
       <c r="I16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J16" s="19" t="n"/>
@@ -12585,7 +12585,7 @@
       </c>
       <c r="C17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -12710,7 +12710,7 @@
       </c>
       <c r="C22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D22" s="16" t="n"/>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D23" s="16" t="n"/>
@@ -12894,7 +12894,7 @@
       </c>
       <c r="C30" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D30" s="19" t="n"/>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="I30" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J30" s="16" t="n"/>
@@ -12927,7 +12927,7 @@
       </c>
       <c r="C31" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D31" s="19" t="n"/>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="G33" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H33" s="22" t="n"/>
@@ -13134,7 +13134,7 @@
       </c>
       <c r="I40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J40" s="19" t="n"/>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="C41" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -13312,7 +13312,7 @@
       </c>
       <c r="C48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D48" s="19" t="n"/>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="G48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H48" s="19" t="n"/>
@@ -13732,7 +13732,7 @@
       </c>
       <c r="E8" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F8" s="16" t="n"/>
@@ -13755,7 +13755,7 @@
       </c>
       <c r="C9" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -13916,7 +13916,7 @@
       </c>
       <c r="E16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F16" s="28" t="n"/>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="C17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="I17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
@@ -14108,7 +14108,7 @@
       </c>
       <c r="E24" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F24" s="16" t="n"/>
@@ -14122,7 +14122,7 @@
       </c>
       <c r="K24" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -14139,7 +14139,7 @@
       </c>
       <c r="C25" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -14151,7 +14151,7 @@
       </c>
       <c r="G25" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H25" s="22" t="n"/>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="E32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F32" s="16" t="n"/>
@@ -14331,7 +14331,7 @@
       </c>
       <c r="C33" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -14343,7 +14343,7 @@
       </c>
       <c r="G33" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H33" s="22" t="n"/>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="K33" s="45" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -14508,7 +14508,7 @@
       </c>
       <c r="E40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F40" s="16" t="n"/>
@@ -14684,7 +14684,7 @@
       </c>
       <c r="E48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F48" s="16" t="n"/>
@@ -15092,7 +15092,7 @@
       </c>
       <c r="C8" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D8" s="19" t="n"/>
@@ -15268,7 +15268,7 @@
       </c>
       <c r="C16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D16" s="19" t="n"/>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="I16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J16" s="16" t="n"/>
@@ -15307,7 +15307,7 @@
       </c>
       <c r="I17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J17" s="24" t="n"/>
@@ -15443,7 +15443,7 @@
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D23" s="16" t="n"/>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="C24" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D24" s="16" t="n"/>
@@ -15627,7 +15627,7 @@
       </c>
       <c r="C31" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D31" s="19" t="n"/>
@@ -15641,7 +15641,7 @@
       </c>
       <c r="I31" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J31" s="16" t="n"/>
@@ -15677,7 +15677,7 @@
       </c>
       <c r="C33" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -15689,7 +15689,7 @@
       </c>
       <c r="G33" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H33" s="22" t="n"/>
@@ -16418,7 +16418,7 @@
       </c>
       <c r="C8" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D8" s="16" t="n"/>
@@ -16434,7 +16434,7 @@
       </c>
       <c r="K8" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -16602,7 +16602,7 @@
       </c>
       <c r="C16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D16" s="19" t="n"/>
@@ -16616,7 +16616,7 @@
       </c>
       <c r="I16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J16" s="19" t="inlineStr">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="K16" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -16781,7 +16781,7 @@
       </c>
       <c r="G23" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H23" s="19" t="inlineStr">
@@ -16791,7 +16791,7 @@
       </c>
       <c r="I23" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J23" s="19" t="n"/>
@@ -16933,7 +16933,7 @@
       </c>
       <c r="I29" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J29" s="16" t="n"/>
@@ -16986,7 +16986,7 @@
       </c>
       <c r="C32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D32" s="19" t="n"/>
@@ -17000,7 +17000,7 @@
       </c>
       <c r="I32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J32" s="19" t="n"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="C33" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -17190,7 +17190,7 @@
       </c>
       <c r="K40" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -17347,7 +17347,7 @@
       </c>
       <c r="I47" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J47" s="16" t="n"/>
@@ -17368,7 +17368,7 @@
       </c>
       <c r="E48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F48" s="16" t="n"/>
@@ -17391,7 +17391,7 @@
       </c>
       <c r="C49" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -17405,7 +17405,7 @@
       </c>
       <c r="I49" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J49" s="24" t="n"/>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="E7" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F7" s="19" t="n"/>
@@ -17793,7 +17793,7 @@
       </c>
       <c r="I7" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J7" s="19" t="n"/>
@@ -17969,7 +17969,7 @@
       </c>
       <c r="I15" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J15" s="19" t="n"/>
@@ -17994,7 +17994,7 @@
       </c>
       <c r="I16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J16" s="19" t="n"/>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="K21" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="E22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F22" s="19" t="n"/>
@@ -18152,7 +18152,7 @@
       </c>
       <c r="I22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J22" s="19" t="n"/>
@@ -19089,7 +19089,7 @@
       </c>
       <c r="K7" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -19127,7 +19127,7 @@
       </c>
       <c r="G9" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H9" s="22" t="n"/>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="E16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F16" s="28" t="n"/>
@@ -19307,7 +19307,7 @@
       </c>
       <c r="C17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="I17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
@@ -19476,7 +19476,7 @@
       </c>
       <c r="E24" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F24" s="19" t="inlineStr">
@@ -19486,7 +19486,7 @@
       </c>
       <c r="G24" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H24" s="16" t="n"/>
@@ -19647,7 +19647,7 @@
       </c>
       <c r="I31" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J31" s="16" t="n"/>
@@ -19670,7 +19670,7 @@
       </c>
       <c r="G32" s="49" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H32" s="19" t="n"/>
@@ -19693,7 +19693,7 @@
       </c>
       <c r="E33" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F33" s="46" t="n"/>
@@ -19867,7 +19867,7 @@
       </c>
       <c r="C41" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -19879,7 +19879,7 @@
       </c>
       <c r="G41" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H41" s="22" t="n"/>
@@ -19891,7 +19891,7 @@
       </c>
       <c r="K41" s="45" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -20059,7 +20059,7 @@
       </c>
       <c r="C49" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -20071,7 +20071,7 @@
       </c>
       <c r="G49" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H49" s="46" t="n"/>
@@ -20481,7 +20481,7 @@
       </c>
       <c r="G9" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H9" s="24" t="n"/>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="E21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F21" s="19" t="inlineStr">
@@ -20765,7 +20765,7 @@
       </c>
       <c r="G21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H21" s="50" t="n"/>
@@ -20843,7 +20843,7 @@
       </c>
       <c r="I25" s="47" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J25" s="24" t="n"/>
@@ -21168,7 +21168,7 @@
       </c>
       <c r="G40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H40" s="16" t="n"/>
@@ -21193,7 +21193,7 @@
       </c>
       <c r="G41" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H41" s="24" t="n"/>
@@ -21369,7 +21369,7 @@
       </c>
       <c r="G49" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H49" s="24" t="n"/>
@@ -21719,7 +21719,7 @@
       </c>
       <c r="K5" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -21938,7 +21938,7 @@
       </c>
       <c r="C16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D16" s="19" t="inlineStr">
@@ -21948,7 +21948,7 @@
       </c>
       <c r="E16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F16" s="28" t="n"/>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="I16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J16" s="19" t="n"/>
@@ -22085,7 +22085,7 @@
       </c>
       <c r="I21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J21" s="16" t="n"/>
@@ -22110,7 +22110,7 @@
       </c>
       <c r="I22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J22" s="16" t="n"/>
@@ -22129,7 +22129,7 @@
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D23" s="19" t="n"/>
@@ -22154,7 +22154,7 @@
       </c>
       <c r="C24" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D24" s="19" t="n"/>
@@ -22498,7 +22498,7 @@
       </c>
       <c r="C40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D40" s="19" t="inlineStr">
@@ -22508,7 +22508,7 @@
       </c>
       <c r="E40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F40" s="16" t="n"/>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I41" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J41" s="24" t="n"/>
@@ -22698,7 +22698,7 @@
       </c>
       <c r="K48" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="E49" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F49" s="24" t="n"/>
@@ -23101,7 +23101,7 @@
       </c>
       <c r="E7" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F7" s="16" t="n"/>
@@ -23277,7 +23277,7 @@
       </c>
       <c r="E15" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F15" s="28" t="n"/>
@@ -23438,7 +23438,7 @@
       </c>
       <c r="G22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H22" s="19" t="n"/>
@@ -23450,7 +23450,7 @@
       </c>
       <c r="K22" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -23467,7 +23467,7 @@
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D23" s="16" t="n"/>
@@ -23479,7 +23479,7 @@
       </c>
       <c r="G23" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H23" s="19" t="n"/>
@@ -23634,7 +23634,7 @@
       </c>
       <c r="C30" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D30" s="19" t="n"/>
@@ -23661,7 +23661,7 @@
       </c>
       <c r="E31" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F31" s="19" t="n"/>
@@ -23692,7 +23692,7 @@
       </c>
       <c r="K32" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="E47" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F47" s="19" t="n"/>
@@ -24459,7 +24459,7 @@
       </c>
       <c r="C9" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
@@ -24469,7 +24469,7 @@
       </c>
       <c r="E9" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F9" s="22" t="n"/>
@@ -24481,7 +24481,7 @@
       </c>
       <c r="I9" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J9" s="22" t="n"/>
@@ -24619,7 +24619,7 @@
       </c>
       <c r="E15" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F15" s="28" t="n"/>
@@ -24659,7 +24659,7 @@
       </c>
       <c r="C17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -24673,7 +24673,7 @@
       </c>
       <c r="I17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
@@ -24775,7 +24775,7 @@
       </c>
       <c r="C21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D21" s="19" t="n"/>
@@ -24787,7 +24787,7 @@
       </c>
       <c r="G21" s="49" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H21" s="19" t="n"/>
@@ -24799,7 +24799,7 @@
       </c>
       <c r="K21" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -24816,7 +24816,7 @@
       </c>
       <c r="C22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D22" s="19" t="n"/>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="G22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H22" s="19" t="n"/>
@@ -24983,7 +24983,7 @@
       </c>
       <c r="C29" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D29" s="19" t="n"/>
@@ -25010,7 +25010,7 @@
       </c>
       <c r="E30" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F30" s="19" t="n"/>
@@ -25054,7 +25054,7 @@
       </c>
       <c r="G32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H32" s="16" t="n"/>
@@ -25211,7 +25211,7 @@
       </c>
       <c r="E39" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F39" s="19" t="n"/>
@@ -25242,7 +25242,7 @@
       </c>
       <c r="K40" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="E47" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F47" s="19" t="n"/>
@@ -25407,7 +25407,7 @@
       </c>
       <c r="I47" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J47" s="19" t="n"/>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="K8" s="44" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -25987,7 +25987,7 @@
       </c>
       <c r="C15" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D15" s="19" t="n"/>
@@ -26133,7 +26133,7 @@
       </c>
       <c r="G21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H21" s="19" t="n"/>
@@ -26177,7 +26177,7 @@
       </c>
       <c r="I23" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J23" s="19" t="n"/>
@@ -26353,7 +26353,7 @@
       </c>
       <c r="I31" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J31" s="16" t="n"/>
@@ -26372,7 +26372,7 @@
       </c>
       <c r="C32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D32" s="19" t="n"/>
@@ -26384,7 +26384,7 @@
       </c>
       <c r="G32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H32" s="19" t="n"/>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="C40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D40" s="19" t="n"/>
@@ -26568,7 +26568,7 @@
       </c>
       <c r="G40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H40" s="19" t="n"/>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="I41" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J41" s="22" t="n"/>
@@ -26748,7 +26748,7 @@
       </c>
       <c r="C48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D48" s="19" t="n"/>
@@ -26762,7 +26762,7 @@
       </c>
       <c r="I48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J48" s="19" t="n"/>
@@ -26781,7 +26781,7 @@
       </c>
       <c r="C49" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -26793,7 +26793,7 @@
       </c>
       <c r="G49" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H49" s="22" t="n"/>
@@ -27199,7 +27199,7 @@
       </c>
       <c r="C9" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -27213,7 +27213,7 @@
       </c>
       <c r="I9" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J9" s="24" t="n"/>
@@ -27372,7 +27372,7 @@
       </c>
       <c r="I16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J16" s="19" t="n"/>
@@ -27391,7 +27391,7 @@
       </c>
       <c r="C17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -27405,7 +27405,7 @@
       </c>
       <c r="I17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
@@ -27524,7 +27524,7 @@
       </c>
       <c r="C22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D22" s="19" t="n"/>
@@ -27538,7 +27538,7 @@
       </c>
       <c r="I22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J22" s="16" t="n"/>
@@ -27576,7 +27576,7 @@
       </c>
       <c r="E24" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F24" s="19" t="n"/>
@@ -27588,7 +27588,7 @@
       </c>
       <c r="I24" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J24" s="16" t="n"/>
@@ -27730,7 +27730,7 @@
       </c>
       <c r="I30" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J30" s="16" t="n"/>
@@ -27749,7 +27749,7 @@
       </c>
       <c r="C31" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D31" s="19" t="inlineStr">
@@ -27759,7 +27759,7 @@
       </c>
       <c r="E31" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F31" s="19" t="n"/>
@@ -27771,7 +27771,7 @@
       </c>
       <c r="I31" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J31" s="16" t="n"/>
@@ -27943,7 +27943,7 @@
       </c>
       <c r="E39" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F39" s="19" t="n"/>
@@ -27972,7 +27972,7 @@
       </c>
       <c r="I40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J40" s="19" t="n"/>
@@ -27991,7 +27991,7 @@
       </c>
       <c r="C41" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -28135,7 +28135,7 @@
       </c>
       <c r="E47" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F47" s="19" t="n"/>
@@ -28164,7 +28164,7 @@
       </c>
       <c r="I48" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J48" s="19" t="n"/>
@@ -28553,7 +28553,7 @@
       </c>
       <c r="E7" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F7" s="19" t="n"/>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="E9" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F9" s="22" t="n"/>
@@ -28607,7 +28607,7 @@
       </c>
       <c r="I9" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J9" s="24" t="n"/>
@@ -28745,7 +28745,7 @@
       </c>
       <c r="E15" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F15" s="28" t="n"/>
@@ -28785,7 +28785,7 @@
       </c>
       <c r="C17" s="23" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -28895,7 +28895,7 @@
       </c>
       <c r="E21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F21" s="19" t="n"/>
@@ -28935,7 +28935,7 @@
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D23" s="19" t="n"/>
@@ -28947,7 +28947,7 @@
       </c>
       <c r="G23" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H23" s="19" t="n"/>
@@ -29087,7 +29087,7 @@
       </c>
       <c r="E29" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F29" s="19" t="n"/>
@@ -29116,7 +29116,7 @@
       </c>
       <c r="I30" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J30" s="16" t="n"/>
@@ -29154,7 +29154,7 @@
       </c>
       <c r="E32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F32" s="19" t="n"/>
@@ -29313,7 +29313,7 @@
       </c>
       <c r="E39" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F39" s="19" t="n"/>
@@ -29336,7 +29336,7 @@
       </c>
       <c r="C40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D40" s="19" t="n"/>
@@ -29348,7 +29348,7 @@
       </c>
       <c r="G40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H40" s="19" t="n"/>
@@ -29504,7 +29504,7 @@
       </c>
       <c r="E47" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F47" s="19" t="n"/>
